--- a/db.xlsx
+++ b/db.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Occupation</t>
   </si>
@@ -60,16 +57,63 @@
   </si>
   <si>
     <t>HSE</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>t@t.com</t>
+  </si>
+  <si>
+    <t>s@s.com</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>w@w.com</t>
+  </si>
+  <si>
+    <t>c@c.com</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>Dayo</t>
+  </si>
+  <si>
+    <t>d@d.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -84,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,14 +136,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,63 +441,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>